--- a/biology/Médecine/1866_en_santé_et_médecine/1866_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1866_en_santé_et_médecine/1866_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1866_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1866_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1866 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1866_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1866_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En France, le diplôme de pharmacien devient obligatoire pour les pharmaciens de la Marine[1].
-Charles Adolphe Wurtz est nommé doyen de l’École de médecine de Paris[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En France, le diplôme de pharmacien devient obligatoire pour les pharmaciens de la Marine.
+Charles Adolphe Wurtz est nommé doyen de l’École de médecine de Paris.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1866_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1866_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -550,7 +566,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1866_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1866_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -568,7 +584,9 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Médailles de la Royal Society
 Médaille royale : William Kitchen Parker.</t>
@@ -581,7 +599,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1866_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1866_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -599,7 +617,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>10 mars : José Casares Gil (mort en 1961), pharmacien et chimiste espagnol.
 21 septembre : Charles Nicolle (mort en 1936), médecin et microbiologiste français, lauréat du prix Nobel de physiologie ou médecine de 1928.
@@ -614,7 +634,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1866_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1866_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -632,13 +652,15 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5 mars : John Conolly (né en 1794), psychiatre anglais[3],[4].
-12 mars : Jean-Baptiste-Maximien Parchappe de Vinay (né en 1800), psychiatre français[5].
-16 septembre : François Mêlier (né en 1798), professeur de médecine français, précurseur de santé publique, mort d'un accident vasculaire cérébral[6].
-18 octobre : Philipp Franz von Siebold (né en 1796), médecin et naturaliste bavarois[7].
-5 décembre : Camille Montagne (né en 1784), chirurgien militaire, naturaliste et mycologue français[8].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>5 mars : John Conolly (né en 1794), psychiatre anglais,.
+12 mars : Jean-Baptiste-Maximien Parchappe de Vinay (né en 1800), psychiatre français.
+16 septembre : François Mêlier (né en 1798), professeur de médecine français, précurseur de santé publique, mort d'un accident vasculaire cérébral.
+18 octobre : Philipp Franz von Siebold (né en 1796), médecin et naturaliste bavarois.
+5 décembre : Camille Montagne (né en 1784), chirurgien militaire, naturaliste et mycologue français.</t>
         </is>
       </c>
     </row>
